--- a/Ghant chart.xlsx
+++ b/Ghant chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\capstone\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769FCA0-0F6B-41BF-8B4D-0889299E3E4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFEB1C3-7F78-4312-A9A0-419B4BF1EAC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC312C59-E2E2-455D-9696-35A30D50E7EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Gathering requirments</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>WEEK</t>
+  </si>
+  <si>
+    <t>acjnoef</t>
+  </si>
+  <si>
+    <t>kdvn</t>
+  </si>
+  <si>
+    <t>pdnv</t>
   </si>
 </sst>
 </file>
@@ -1322,6 +1331,17 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="14" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
